--- a/GRIT procedures.xlsx
+++ b/GRIT procedures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\Radiabeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F4485C-147D-4C0B-AA5D-A14505C1F266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D46F18-A4D2-4BD8-872D-750176AA6603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="24" windowWidth="17280" windowHeight="9960" firstSheet="1" activeTab="4" xr2:uid="{519486E6-1F51-414A-9FC8-E8207FE79689}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{519486E6-1F51-414A-9FC8-E8207FE79689}"/>
   </bookViews>
   <sheets>
     <sheet name="GRIT startup" sheetId="1" r:id="rId1"/>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29DB795-8917-4157-9FB1-CE872DB3E615}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0610D8-4F31-4B47-AE0C-5C5B6EE18149}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BC99EC-1A69-46FB-B402-BE25FFF40A63}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
